--- a/assets.xlsx
+++ b/assets.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Invest-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABE564B-1075-4B54-A9A6-886264E257F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0818EAEF-2455-48AB-80DA-11205944ABBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Комментарии автора" sheetId="2" r:id="rId1"/>
-    <sheet name="Акции, фонды" sheetId="1" r:id="rId2"/>
+    <sheet name="Комментарии автора" sheetId="1" r:id="rId1"/>
+    <sheet name="Акции, фонды" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
+    <t>Ячейки, окрашенные в Серый - необходимо заполнять вручную единоразово</t>
+  </si>
+  <si>
+    <t>Ячейки, окрашенные в синий - обновляется автоматический, за счёт сторонней программы, либо уже готовых формул Excel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Название </t>
   </si>
   <si>
@@ -49,66 +50,61 @@
     <t>Цена нынешняя</t>
   </si>
   <si>
+    <t>Суммарная цена покупки</t>
+  </si>
+  <si>
+    <t>Суммарная цена нынешняя</t>
+  </si>
+  <si>
     <t>Рост в %</t>
   </si>
   <si>
-    <t>Суммарная цена покупки</t>
-  </si>
-  <si>
-    <t>Суммарная цена нынешняя</t>
-  </si>
-  <si>
     <t>Разница</t>
   </si>
   <si>
     <t>Яндекс</t>
   </si>
   <si>
+    <t>YNDX</t>
+  </si>
+  <si>
     <t>Газпром</t>
   </si>
   <si>
+    <t>GAZP</t>
+  </si>
+  <si>
+    <t>Сбер Банк</t>
+  </si>
+  <si>
+    <t>SBER</t>
+  </si>
+  <si>
     <t>ПИК</t>
   </si>
   <si>
-    <t>Сбер Банк</t>
+    <t>PIKK</t>
   </si>
   <si>
     <t>VK</t>
   </si>
   <si>
+    <t>VKCO</t>
+  </si>
+  <si>
     <t>АбрауДюрсо</t>
   </si>
   <si>
-    <t>VKCO</t>
-  </si>
-  <si>
     <t>ABRD</t>
-  </si>
-  <si>
-    <t>PIKK</t>
-  </si>
-  <si>
-    <t>SBER</t>
-  </si>
-  <si>
-    <t>GAZP</t>
-  </si>
-  <si>
-    <t>YNDX</t>
-  </si>
-  <si>
-    <t>Ячейки, окрашенные в Серый - необходимо заполнять вручную единоразово</t>
-  </si>
-  <si>
-    <t>Ячейки, окрашенные в синий - обновляется автоматический, за счёт сторонней программы, либо уже готовых формул Excel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ \₽"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -142,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +169,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -198,11 +200,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,7 +214,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,18 +226,126 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -510,7 +620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A93F03-6837-4339-94C9-192B20BE473C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -524,36 +634,36 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="6" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>24</v>
+      <c r="B6" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -595,364 +705,405 @@
     <mergeCell ref="B6:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.88671875" style="3" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="8.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="15" customWidth="1"/>
     <col min="4" max="4" width="14.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="4"/>
-    <col min="11" max="11" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16" style="9" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="I1" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3">
+        <v>14</v>
+      </c>
+      <c r="C2" s="15">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>45059</v>
       </c>
-      <c r="E2" s="4">
-        <f ca="1">TODAY()-D2</f>
-        <v>57</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="14">
+        <f t="shared" ref="E2:E9" ca="1" si="0">TODAY()-D2</f>
+        <v>61</v>
+      </c>
+      <c r="F2" s="6">
         <v>2006.2</v>
       </c>
-      <c r="H2" s="10">
-        <f>C2*F2</f>
+      <c r="G2" s="10">
+        <v>2453.1999999999998</v>
+      </c>
+      <c r="H2" s="9">
+        <f t="shared" ref="H2:H9" si="1">C2*F2</f>
         <v>14043.4</v>
       </c>
-      <c r="I2" s="10">
-        <f>C2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="e">
-        <f>(F2-G2)/G2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" s="10">
-        <f>G2-F2</f>
-        <v>-2006.2</v>
+      <c r="I2" s="9">
+        <f t="shared" ref="I2:I9" si="2">C2*G2</f>
+        <v>17172.399999999998</v>
+      </c>
+      <c r="J2" s="16">
+        <f t="shared" ref="J2:J9" si="3">(G2-F2)/F2</f>
+        <v>0.22280929119728829</v>
+      </c>
+      <c r="K2" s="9">
+        <f t="shared" ref="K2:K9" si="4">G2-F2</f>
+        <v>446.99999999999977</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15">
         <v>20</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>45059</v>
       </c>
-      <c r="E3" s="4">
-        <f ca="1">TODAY()-D3</f>
-        <v>57</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F3" s="6">
         <v>173.83</v>
       </c>
-      <c r="H3" s="10">
-        <f>C3*F3</f>
+      <c r="G3" s="10">
+        <v>169.14</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" si="1"/>
         <v>3476.6000000000004</v>
       </c>
-      <c r="I3" s="10">
-        <f t="shared" ref="I3:I10" si="0">C3*G3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="e">
-        <f t="shared" ref="J3:J9" si="1">(F3-G3)/G3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="10">
-        <f t="shared" ref="K3:K9" si="2">G3-F3</f>
-        <v>-173.83</v>
+      <c r="I3" s="9">
+        <f t="shared" si="2"/>
+        <v>3382.7999999999997</v>
+      </c>
+      <c r="J3" s="16">
+        <f t="shared" si="3"/>
+        <v>-2.698038313294613E-2</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" si="4"/>
+        <v>-4.6900000000000261</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3">
+        <v>18</v>
+      </c>
+      <c r="C4" s="15">
         <v>50</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>45078</v>
       </c>
-      <c r="E4" s="4">
-        <f ca="1">TODAY()-D4</f>
-        <v>38</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F4" s="6">
         <v>241.66</v>
       </c>
-      <c r="H4" s="10">
-        <f>C4*F4</f>
+      <c r="G4" s="10">
+        <v>246.2</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="1"/>
         <v>12083</v>
       </c>
-      <c r="I4" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="I4" s="9">
         <f t="shared" si="2"/>
-        <v>-241.66</v>
+        <v>12310</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" si="3"/>
+        <v>1.8786725151038616E-2</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" si="4"/>
+        <v>4.539999999999992</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15">
         <v>5</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>45081</v>
       </c>
-      <c r="E5" s="4">
-        <f t="shared" ref="E5:E9" ca="1" si="3">TODAY()-D5</f>
-        <v>35</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F5" s="6">
         <v>717</v>
       </c>
-      <c r="H5" s="10">
-        <f t="shared" ref="H5:H9" si="4">C5*F5</f>
+      <c r="G5" s="10">
+        <v>772.7</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="1"/>
         <v>3585</v>
       </c>
-      <c r="I5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="I5" s="9">
         <f t="shared" si="2"/>
-        <v>-717</v>
+        <v>3863.5</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="3"/>
+        <v>7.7684797768479835E-2</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="4"/>
+        <v>55.700000000000045</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
+        <v>18</v>
+      </c>
+      <c r="C6" s="15">
         <v>30</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>45101</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F6" s="6">
         <v>223.2</v>
       </c>
-      <c r="H6" s="10">
+      <c r="G6" s="10">
+        <v>246.2</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="1"/>
+        <v>6696</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="2"/>
+        <v>7386</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10304659498207885</v>
+      </c>
+      <c r="K6" s="9">
         <f t="shared" si="4"/>
-        <v>6696</v>
-      </c>
-      <c r="I6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="10">
-        <f t="shared" si="2"/>
-        <v>-223.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3">
+        <v>22</v>
+      </c>
+      <c r="C7" s="15">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>45101</v>
       </c>
-      <c r="E7" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F7" s="6">
         <v>581.6</v>
       </c>
-      <c r="H7" s="10">
+      <c r="G7" s="10">
+        <v>635.79999999999995</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="1"/>
+        <v>4071.2000000000003</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="2"/>
+        <v>4450.5999999999995</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="3"/>
+        <v>9.3191196698761913E-2</v>
+      </c>
+      <c r="K7" s="9">
         <f t="shared" si="4"/>
-        <v>4071.2000000000003</v>
-      </c>
-      <c r="I7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="10">
-        <f t="shared" si="2"/>
-        <v>-581.6</v>
+        <v>54.199999999999932</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3">
+        <v>24</v>
+      </c>
+      <c r="C8" s="15">
         <v>6</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>45110</v>
       </c>
-      <c r="E8" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="6">
         <v>335.2</v>
       </c>
-      <c r="H8" s="10">
+      <c r="G8" s="10">
+        <v>338.6</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="1"/>
+        <v>2011.1999999999998</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="2"/>
+        <v>2031.6000000000001</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="3"/>
+        <v>1.0143198090692225E-2</v>
+      </c>
+      <c r="K8" s="9">
         <f t="shared" si="4"/>
-        <v>2011.1999999999998</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="10">
-        <f t="shared" si="2"/>
-        <v>-335.2</v>
+        <v>3.4000000000000341</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>45114</v>
       </c>
-      <c r="E9" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="6">
         <v>760.4</v>
       </c>
-      <c r="H9" s="10">
+      <c r="G9" s="10">
+        <v>772.7</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
+        <v>3802</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="2"/>
+        <v>3863.5</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="3"/>
+        <v>1.6175697001578206E-2</v>
+      </c>
+      <c r="K9" s="9">
         <f t="shared" si="4"/>
-        <v>3802</v>
-      </c>
-      <c r="I9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="10">
-        <f t="shared" si="2"/>
-        <v>-760.4</v>
+        <v>12.300000000000068</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:J1048576">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K1048576">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
